--- a/Networks/Parte2/Excel/Parte2-Network20.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network20.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5795301583288686</v>
+        <v>-1.352875235549049</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8975114724693719</v>
+        <v>-0.8778542889328459</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8664518396493747</v>
+        <v>1.145162507094057</v>
       </c>
       <c r="C3" t="n">
-        <v>1.49055323929452</v>
+        <v>0.8371067152591948</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2152928307327166</v>
+        <v>1.098998930159426</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7756868375950143</v>
+        <v>-1.132010222760728</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.826579776042965</v>
+        <v>-1.66174642026249</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3798147948547002</v>
+        <v>0.1115069638636245</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4202456213665272</v>
+        <v>1.699690975204034</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7189666559890723</v>
+        <v>-0.6917408396953876</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.730672773856943</v>
+        <v>-0.2239801905418986</v>
       </c>
       <c r="C4" t="n">
-        <v>0.347466130760082</v>
+        <v>0.6741884741343568</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network20.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network20.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.352875235549049</v>
+        <v>-1.178779104422199</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8778542889328459</v>
+        <v>-0.3133944181501971</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.145162507094057</v>
+        <v>1.114065831829065</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8371067152591948</v>
+        <v>-0.05302445621868173</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.098998930159426</v>
+        <v>1.031221533308728</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.132010222760728</v>
+        <v>-1.138056361976655</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.66174642026249</v>
+        <v>-1.43124645803977</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1115069638636245</v>
+        <v>0.1708705761344226</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.699690975204034</v>
+        <v>1.670403732125383</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6917408396953876</v>
+        <v>-0.5395598396390022</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2239801905418986</v>
+        <v>-1.201987556089993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6741884741343568</v>
+        <v>0.2687941938270313</v>
       </c>
     </row>
   </sheetData>
